--- a/forEclipse/workspace/test.xlsx
+++ b/forEclipse/workspace/test.xlsx
@@ -29,15 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>ja out name</t>
+  </si>
+  <si>
+    <t>ja out num</t>
+  </si>
+  <si>
+    <t>ja out type</t>
+  </si>
+  <si>
+    <t>day m tol</t>
+  </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>ch in</t>
-  </si>
-  <si>
-    <t>ch in num</t>
+    <t>in name</t>
+  </si>
+  <si>
+    <t>in num</t>
+  </si>
+  <si>
+    <t>in type</t>
   </si>
   <si>
     <t>ch out</t>
@@ -46,6 +61,9 @@
     <t>ch out num</t>
   </si>
   <si>
+    <t>ch out type</t>
+  </si>
+  <si>
     <t>m1</t>
   </si>
   <si>
@@ -61,13 +79,16 @@
     <t>memo</t>
   </si>
   <si>
+    <t>2024/3/30</t>
+  </si>
+  <si>
+    <t>costDetails1</t>
+  </si>
+  <si>
+    <t>morningf</t>
+  </si>
+  <si>
     <t>2024/4/1</t>
-  </si>
-  <si>
-    <t>costDetails1</t>
-  </si>
-  <si>
-    <t>morningf</t>
   </si>
   <si>
     <t>2024/4/2</t>
@@ -1064,7 +1085,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:Q31"/>
+  <dimension ref="A2:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,198 +1095,322 @@
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="10.375" customWidth="1"/>
+    <col min="13" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:17">
-      <c r="F3">
-        <v>6000</v>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="O4">
+        <v>5000</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
+      <c r="Q4">
+        <v>800000</v>
+      </c>
+      <c r="R4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forEclipse/workspace/test.xlsx
+++ b/forEclipse/workspace/test.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7695"/>
+    <workbookView windowHeight="7695" windowWidth="19635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ja out name</t>
   </si>
@@ -91,6 +94,57 @@
     <t>2024/4/1</t>
   </si>
   <si>
+    <t>morningFD1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>incomeName5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>morningFD3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memotest
+memotest
+memotest
+memotest
+memotest
+memotest
+memotest
+memotest
+memotest
+</t>
+  </si>
+  <si>
+    <t>morningFD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>incomeName6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>morningFD4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>incomeName7</t>
+  </si>
+  <si>
     <t>2024/4/2</t>
   </si>
   <si>
@@ -149,6 +203,9 @@
   </si>
   <si>
     <t>2024/4/21</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -616,217 +673,217 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="1"/>
+    <cellStyle builtinId="4" name="货币" xfId="2"/>
+    <cellStyle builtinId="5" name="百分比" xfId="3"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="4"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="5"/>
+    <cellStyle builtinId="8" name="超链接" xfId="6"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="7"/>
+    <cellStyle builtinId="10" name="注释" xfId="8"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="9"/>
+    <cellStyle builtinId="15" name="标题" xfId="10"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="11"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="12"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="13"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="20" name="输入" xfId="16"/>
+    <cellStyle builtinId="21" name="输出" xfId="17"/>
+    <cellStyle builtinId="22" name="计算" xfId="18"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="19"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="26" name="好" xfId="22"/>
+    <cellStyle builtinId="27" name="差" xfId="23"/>
+    <cellStyle builtinId="28" name="适中" xfId="24"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="25"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="26"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="27"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="28"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="29"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="30"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="31"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="33"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="34"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="37"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="38"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="39"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="41"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="42"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="45"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -840,10 +897,10 @@
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -981,21 +1038,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:gradFill>
             <a:gsLst>
               <a:gs pos="0">
@@ -1016,7 +1073,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="101600" dir="5400000" dist="50800" rotWithShape="0">
               <a:schemeClr val="phClr">
                 <a:alpha val="60000"/>
               </a:schemeClr>
@@ -1025,12 +1082,12 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:reflection algn="bl" dir="5400000" dist="25400" endA="300" endPos="40000" rotWithShape="0" stA="50000" sy="-100000"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1083,28 +1140,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A2:S37"/>
+  <dimension ref="A2:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="10" width="10.375" customWidth="1"/>
-    <col min="13" max="14" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.75" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="10.375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.5" collapsed="false"/>
+    <col min="9" max="10" customWidth="true" width="10.375" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="11.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1164,66 +1221,66 @@
     </row>
     <row r="3" spans="2:19">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -1241,154 +1298,363 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:5">
+    <row customFormat="1" r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:1">
+      <c r="F5">
+        <f>(C5+C7)</f>
+      </c>
+      <c r="G5">
+        <f>E5-(C5+C7)</f>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <f>O4+(C6+C8)</f>
+      </c>
+      <c r="P5">
+        <f>P4+(M6)</f>
+      </c>
+      <c r="Q5">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R5">
+        <f>R4-(M5)+(I6+I7)</f>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="F6" s="0">
+        <f>(C5+#REF!)</f>
+      </c>
+      <c r="G6" s="0">
+        <f>E5-(C5+#REF!)</f>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>504.0</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O6" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P6" s="0">
+        <f>P4+(#REF!)</f>
+      </c>
+      <c r="Q6" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R6" s="0">
+        <f>R4-(M5)+(#REF!+#REF!)</f>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="F7" s="0">
+        <f>(C5+#REF!)</f>
+      </c>
+      <c r="G7" s="0">
+        <f>E5-(C5+#REF!)</f>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>150000.0</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O7" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P7" s="0">
+        <f>P4+(#REF!)</f>
+      </c>
+      <c r="Q7" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R7" s="0">
+        <f>R4-(M5)+(#REF!+#REF!)</f>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="F8" s="0">
+        <f>(C5+#REF!)</f>
+      </c>
+      <c r="G8" s="0">
+        <f>E5-(C5+#REF!)</f>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="O8" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P8" s="0">
+        <f>P4+(#REF!)</f>
+      </c>
+      <c r="Q8" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R8" s="0">
+        <f>R4-(M5)+(#REF!+#REF!)</f>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="29" spans="2:2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="30" spans="2:2">
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2">
@@ -1406,21 +1672,26 @@
     <row r="35" spans="2:2">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <mergeCells>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="S5:S8"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1430,14 +1701,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1447,8 +1718,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/forEclipse/workspace/test.xlsx
+++ b/forEclipse/workspace/test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="64">
   <si>
     <t>0</t>
   </si>
@@ -94,22 +94,109 @@
     <t>2024/4/1</t>
   </si>
   <si>
+    <t>无花销</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024/4/2</t>
+  </si>
+  <si>
+    <t>2024/4/3</t>
+  </si>
+  <si>
+    <t>2024/4/4</t>
+  </si>
+  <si>
+    <t>2024/4/5</t>
+  </si>
+  <si>
+    <t>2024/4/6</t>
+  </si>
+  <si>
+    <t>2024/4/7</t>
+  </si>
+  <si>
+    <t>2024/4/8</t>
+  </si>
+  <si>
+    <t>2024/4/9</t>
+  </si>
+  <si>
+    <t>2024/4/10</t>
+  </si>
+  <si>
+    <t>2024/4/11</t>
+  </si>
+  <si>
+    <t>2024/4/12</t>
+  </si>
+  <si>
+    <t>2024/4/13</t>
+  </si>
+  <si>
+    <t>2024/4/14</t>
+  </si>
+  <si>
+    <t>2024/4/15</t>
+  </si>
+  <si>
+    <t>2024/4/16</t>
+  </si>
+  <si>
+    <t>2024/4/17</t>
+  </si>
+  <si>
+    <t>2024/4/18</t>
+  </si>
+  <si>
+    <t>2024/4/19</t>
+  </si>
+  <si>
+    <t>2024/4/20</t>
+  </si>
+  <si>
+    <t>2024/4/21</t>
+  </si>
+  <si>
     <t>morningFD1</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>morningFD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>morningFD3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>morningFD4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>incomeName5</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>morningFD3</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>incomeName6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>incomeName7</t>
   </si>
   <si>
     <t xml:space="preserve">memotest
@@ -124,88 +211,25 @@
 </t>
   </si>
   <si>
-    <t>morningFD2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>incomeName6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>morningFD4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>incomeName7</t>
-  </si>
-  <si>
-    <t>2024/4/2</t>
-  </si>
-  <si>
-    <t>2024/4/3</t>
-  </si>
-  <si>
-    <t>2024/4/4</t>
-  </si>
-  <si>
-    <t>2024/4/5</t>
-  </si>
-  <si>
-    <t>2024/4/6</t>
-  </si>
-  <si>
-    <t>2024/4/7</t>
-  </si>
-  <si>
-    <t>2024/4/8</t>
-  </si>
-  <si>
-    <t>2024/4/9</t>
-  </si>
-  <si>
-    <t>2024/4/10</t>
-  </si>
-  <si>
-    <t>2024/4/11</t>
-  </si>
-  <si>
-    <t>2024/4/12</t>
-  </si>
-  <si>
-    <t>2024/4/13</t>
-  </si>
-  <si>
-    <t>2024/4/14</t>
-  </si>
-  <si>
-    <t>2024/4/15</t>
-  </si>
-  <si>
-    <t>2024/4/16</t>
-  </si>
-  <si>
-    <t>2024/4/17</t>
-  </si>
-  <si>
-    <t>2024/4/18</t>
-  </si>
-  <si>
-    <t>2024/4/19</t>
-  </si>
-  <si>
-    <t>2024/4/20</t>
-  </si>
-  <si>
-    <t>2024/4/21</t>
-  </si>
-  <si>
-    <t/>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>交通费</t>
+  </si>
+  <si>
+    <t>媳妇国内信用卡</t>
+  </si>
+  <si>
+    <t>邵国内信用卡</t>
+  </si>
+  <si>
+    <t>日本工资</t>
+  </si>
+  <si>
+    <t>兼职</t>
+  </si>
+  <si>
+    <t>红包转账等</t>
   </si>
 </sst>
 </file>
@@ -1142,22 +1166,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A2:S35"/>
+  <dimension ref="A2:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.75" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="10.375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" width="10.375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="11.5" collapsed="false"/>
+    <col min="1" max="1" width="10.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="11.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
@@ -1303,58 +1327,58 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
         <v>501.0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>3000</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
         <f>(C5+C7)</f>
       </c>
       <c r="G5">
         <f>E5-(C5+C7)</f>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I5" t="n">
         <v>70000.0</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
         <v>503.0</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="O5">
         <f>O4+(C6+C8)</f>
       </c>
       <c r="P5">
-        <f>P4+(M6)</f>
+        <f>P4+(M5+M6)</f>
       </c>
       <c r="Q5">
         <f>Q4-F5+(I5)</f>
       </c>
       <c r="R5">
-        <f>R4-(M5)+(I6+I7)</f>
+        <f>R4-0+(I6+I7)</f>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1362,58 +1386,58 @@
         <v>20</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>502.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>3000.0</v>
       </c>
       <c r="F6" s="0">
-        <f>(C5+#REF!)</f>
+        <f>0</f>
       </c>
       <c r="G6" s="0">
-        <f>E5-(C5+#REF!)</f>
+        <f>E5-F5</f>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>50000.0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M6" t="n" s="0">
         <v>504.0</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="O6" s="0">
-        <f>O4+(#REF!+#REF!)</f>
+        <f>O4</f>
       </c>
       <c r="P6" s="0">
-        <f>P4+(#REF!)</f>
+        <f>P4</f>
       </c>
       <c r="Q6" s="0">
-        <f>Q4-F5+(I5)</f>
+        <f>Q4</f>
       </c>
       <c r="R6" s="0">
-        <f>R4-(M5)+(#REF!+#REF!)</f>
+        <f>R4</f>
       </c>
       <c r="S6" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1421,58 +1445,58 @@
         <v>20</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>501.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>3000.0</v>
       </c>
       <c r="F7" s="0">
-        <f>(C5+#REF!)</f>
+        <f>0</f>
       </c>
       <c r="G7" s="0">
-        <f>E5-(C5+#REF!)</f>
+        <f>E5-F5</f>
       </c>
       <c r="H7" t="s" s="0">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>150000.0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O7" s="0">
-        <f>O4+(#REF!+#REF!)</f>
+        <f>O4</f>
       </c>
       <c r="P7" s="0">
-        <f>P4+(#REF!)</f>
+        <f>P4</f>
       </c>
       <c r="Q7" s="0">
-        <f>Q4-F5+(I5)</f>
+        <f>Q4</f>
       </c>
       <c r="R7" s="0">
-        <f>R4-(M5)+(#REF!+#REF!)</f>
+        <f>R4</f>
       </c>
       <c r="S7" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1480,174 +1504,174 @@
         <v>20</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>502.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>3000.0</v>
       </c>
       <c r="F8" s="0">
-        <f>(C5+#REF!)</f>
+        <f>0</f>
       </c>
       <c r="G8" s="0">
-        <f>E5-(C5+#REF!)</f>
+        <f>E5-F5</f>
       </c>
       <c r="H8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O8" s="0">
-        <f>O4+(#REF!+#REF!)</f>
+        <f>O4</f>
       </c>
       <c r="P8" s="0">
-        <f>P4+(#REF!)</f>
+        <f>P4</f>
       </c>
       <c r="Q8" s="0">
-        <f>Q4-F5+(I5)</f>
+        <f>Q4</f>
       </c>
       <c r="R8" s="0">
-        <f>R4-(M5)+(#REF!+#REF!)</f>
+        <f>R4</f>
       </c>
       <c r="S8" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2"/>
     </row>

--- a/forEclipse/workspace/test.xlsx
+++ b/forEclipse/workspace/test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="86">
   <si>
     <t>0</t>
   </si>
@@ -230,6 +230,87 @@
   </si>
   <si>
     <t>红包转账等</t>
+  </si>
+  <si>
+    <t>早饭面包JCB付款</t>
+  </si>
+  <si>
+    <t>早饭</t>
+  </si>
+  <si>
+    <t>买东西 日本现金</t>
+  </si>
+  <si>
+    <t>旅游门票</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>亚马逊买水JCB付款</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>西瓜卡充值 国内信用卡付款</t>
+  </si>
+  <si>
+    <t>买了个华为 邵国内信用卡付款</t>
+  </si>
+  <si>
+    <t>交五险用的国内现金</t>
+  </si>
+  <si>
+    <t>国内现金</t>
+  </si>
+  <si>
+    <t>花呗交了个话费</t>
+  </si>
+  <si>
+    <t>花呗白条等</t>
+  </si>
+  <si>
+    <t>日本发工资</t>
+  </si>
+  <si>
+    <t>日本兼职</t>
+  </si>
+  <si>
+    <t>生日红包入账</t>
+  </si>
+  <si>
+    <t>日本送金国内入账～</t>
+  </si>
+  <si>
+    <t>日本送金国内入账</t>
+  </si>
+  <si>
+    <t>国内住房补贴</t>
+  </si>
+  <si>
+    <t>闲鱼收入</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t xml:space="preserve">早饭
+累加对象
+非累加对象日本现金2
+晚饭日本现金
+亚马逊买水
+媳妇国内信用卡
+邵国内信用卡买手机
+五险
+话费
+四月工资
+兼职工资
+收的红包
+日本送金入账
+四月住房补贴大连
+闲鱼卖货收入
+</t>
   </si>
 </sst>
 </file>
@@ -1327,28 +1408,28 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>501.0</v>
+        <v>265.0</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>3000</v>
       </c>
       <c r="F5" t="str">
-        <f>(C5+C7)</f>
+        <f>(C6+C7+C8)</f>
       </c>
       <c r="G5">
-        <f>E5-(C5+C7)</f>
+        <f>E5-(C6+C8)</f>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I5" t="n">
-        <v>70000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -1357,28 +1438,28 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>503.0</v>
+        <v>200.0</v>
       </c>
       <c r="N5" t="s">
         <v>59</v>
       </c>
       <c r="O5">
-        <f>O4+(C6+C8)</f>
+        <f>O4+(C5+C9)</f>
       </c>
       <c r="P5">
-        <f>P4+(M5+M6)</f>
+        <f>P4+(M5+M6+M8)</f>
       </c>
       <c r="Q5">
         <f>Q4-F5+(I5)</f>
       </c>
       <c r="R5">
-        <f>R4-0+(I6+I7)</f>
+        <f>R4-(M7)+(I6+I7+I8+I9+I10)</f>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1386,28 +1467,28 @@
         <v>20</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>502.0</v>
+        <v>501.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>3000.0</v>
       </c>
       <c r="F6" s="0">
-        <f>0</f>
+        <f>(C5+#REF!)</f>
       </c>
       <c r="G6" s="0">
-        <f>E5-F5</f>
+        <f>E5-(C5+#REF!)</f>
       </c>
       <c r="H6" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>50000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>62</v>
@@ -1416,28 +1497,28 @@
         <v>22</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>504.0</v>
+        <v>500.0</v>
       </c>
       <c r="N6" t="s" s="0">
         <v>60</v>
       </c>
       <c r="O6" s="0">
-        <f>O4</f>
+        <f>O4+(#REF!+#REF!)</f>
       </c>
       <c r="P6" s="0">
-        <f>P4</f>
+        <f>P4+(M5+#REF!)</f>
       </c>
       <c r="Q6" s="0">
-        <f>Q4</f>
+        <f>Q4-F5+(I5)</f>
       </c>
       <c r="R6" s="0">
-        <f>R4</f>
+        <f>R4-0+(#REF!+#REF!)</f>
       </c>
       <c r="S6" t="s" s="0">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1445,10 +1526,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>501.0</v>
+        <v>502.0</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>57</v>
@@ -1457,16 +1538,16 @@
         <v>3000.0</v>
       </c>
       <c r="F7" s="0">
-        <f>0</f>
+        <f>(C5+#REF!)</f>
       </c>
       <c r="G7" s="0">
-        <f>E5-F5</f>
+        <f>E5-(C5+#REF!)</f>
       </c>
       <c r="H7" t="s" s="0">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>150000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>63</v>
@@ -1475,28 +1556,28 @@
         <v>22</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>3500.0</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="O7" s="0">
-        <f>O4</f>
+        <f>O4+(#REF!+#REF!)</f>
       </c>
       <c r="P7" s="0">
-        <f>P4</f>
+        <f>P4+(M5+#REF!)</f>
       </c>
       <c r="Q7" s="0">
-        <f>Q4</f>
+        <f>Q4-F5+(I5)</f>
       </c>
       <c r="R7" s="0">
-        <f>R4</f>
+        <f>R4-0+(#REF!+#REF!)</f>
       </c>
       <c r="S7" t="s" s="0">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1504,181 +1585,293 @@
         <v>20</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>502.0</v>
+        <v>1000.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>3000.0</v>
       </c>
       <c r="F8" s="0">
-        <f>0</f>
+        <f>(C5+#REF!)</f>
       </c>
       <c r="G8" s="0">
-        <f>E5-F5</f>
+        <f>E5-(C5+#REF!)</f>
       </c>
       <c r="H8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>20000.0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="L8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="O8" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P8" s="0">
+        <f>P4+(M5+#REF!)</f>
+      </c>
+      <c r="Q8" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R8" s="0">
+        <f>R4-0+(#REF!+#REF!)</f>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="F9" s="0">
+        <f>(C5+#REF!)</f>
+      </c>
+      <c r="G9" s="0">
+        <f>E5-(C5+#REF!)</f>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="L9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="N8" t="s" s="0">
+      <c r="M9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="O8" s="0">
-        <f>O4</f>
-      </c>
-      <c r="P8" s="0">
-        <f>P4</f>
-      </c>
-      <c r="Q8" s="0">
-        <f>Q4</f>
-      </c>
-      <c r="R8" s="0">
-        <f>R4</f>
-      </c>
-      <c r="S8" t="s" s="0">
+      <c r="N9" t="s" s="0">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
+      <c r="O9" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P9" s="0">
+        <f>P4+(M5+#REF!)</f>
+      </c>
+      <c r="Q9" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R9" s="0">
+        <f>R4-0+(#REF!+#REF!)</f>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>3000.0</v>
+      </c>
+      <c r="F10" s="0">
+        <f>(C5+#REF!)</f>
+      </c>
+      <c r="G10" s="0">
+        <f>E5-(C5+#REF!)</f>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="O10" s="0">
+        <f>O4+(#REF!+#REF!)</f>
+      </c>
+      <c r="P10" s="0">
+        <f>P4+(M5+#REF!)</f>
+      </c>
+      <c r="Q10" s="0">
+        <f>Q4-F5+(I5)</f>
+      </c>
+      <c r="R10" s="0">
+        <f>R4-0+(#REF!+#REF!)</f>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2">
@@ -1695,18 +1888,24 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="O5:O10"/>
+    <mergeCell ref="P5:P10"/>
+    <mergeCell ref="Q5:Q10"/>
+    <mergeCell ref="R5:R10"/>
+    <mergeCell ref="S5:S10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
